--- a/cicada_ig/temp/pages/ValueSet-vaccine-medication-codes-snomed.xlsx
+++ b/cicada_ig/temp/pages/ValueSet-vaccine-medication-codes-snomed.xlsx
@@ -7,21 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from SNOMED CT 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from SNOMED CT 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from SNOMED CT 5" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from SNOMED CT 6" r:id="rId9" sheetId="7"/>
-    <sheet name="Include from SNOMED CT 7" r:id="rId10" sheetId="8"/>
-    <sheet name="Include from SNOMED CT 8" r:id="rId11" sheetId="9"/>
-    <sheet name="Include from SNOMED CT 9" r:id="rId12" sheetId="10"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include #5" r:id="rId9" sheetId="7"/>
+    <sheet name="Include #6" r:id="rId10" sheetId="8"/>
+    <sheet name="Include #7" r:id="rId11" sheetId="9"/>
+    <sheet name="Include #8" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhirfli.dev/fhir/ig/pythia/ValueSet/vaccine-medication-codes-snomed</t>
+    <t>http://fhirfli.dev/fhir/ig/cicada/ValueSet/vaccine-medication-codes-snomed</t>
   </si>
   <si>
     <t>Version</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:25:10-04:00</t>
+    <t>2026-02-11T14:37:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,6 +80,12 @@
     <t>FHIR-FLI (http://fhirfli.dev)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -108,9 +114,6 @@
   </si>
   <si>
     <t>372763006</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -274,7 +277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -374,20 +377,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -412,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -420,29 +431,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -467,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -475,29 +486,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -530,29 +541,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -585,29 +596,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -640,29 +651,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -695,29 +706,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -750,29 +761,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -805,29 +816,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -860,29 +871,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
